--- a/DATA/ARRY_stock_data.xlsx
+++ b/DATA/ARRY_stock_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G798"/>
+  <dimension ref="A1:G799"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18804,7 +18804,30 @@
         <v>19.23999977111816</v>
       </c>
       <c r="G798" t="n">
-        <v>13158100</v>
+        <v>13158400</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="2" t="n">
+        <v>45275</v>
+      </c>
+      <c r="B799" t="n">
+        <v>19.42000007629395</v>
+      </c>
+      <c r="C799" t="n">
+        <v>19.44000053405762</v>
+      </c>
+      <c r="D799" t="n">
+        <v>17.94000053405762</v>
+      </c>
+      <c r="E799" t="n">
+        <v>18.89999961853027</v>
+      </c>
+      <c r="F799" t="n">
+        <v>18.89999961853027</v>
+      </c>
+      <c r="G799" t="n">
+        <v>10170700</v>
       </c>
     </row>
   </sheetData>
